--- a/Code/Results/Cases/Case_2_116/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_116/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9916269345004511</v>
+        <v>1.038004593215928</v>
       </c>
       <c r="D2">
-        <v>1.010222780366314</v>
+        <v>1.038347054360427</v>
       </c>
       <c r="E2">
-        <v>1.011277045779769</v>
+        <v>1.054618069731408</v>
       </c>
       <c r="F2">
-        <v>1.016657356182422</v>
+        <v>1.060848055378822</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039359202101358</v>
+        <v>1.034993404703347</v>
       </c>
       <c r="J2">
-        <v>1.014060999606306</v>
+        <v>1.043104385271074</v>
       </c>
       <c r="K2">
-        <v>1.021541509355762</v>
+        <v>1.04113534690304</v>
       </c>
       <c r="L2">
-        <v>1.022581477648525</v>
+        <v>1.057360784422995</v>
       </c>
       <c r="M2">
-        <v>1.027889404568942</v>
+        <v>1.063573719723618</v>
       </c>
       <c r="N2">
-        <v>1.01550108254017</v>
+        <v>1.044585713143904</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9990692082630283</v>
+        <v>1.039472768506375</v>
       </c>
       <c r="D3">
-        <v>1.015555917730479</v>
+        <v>1.039405059870291</v>
       </c>
       <c r="E3">
-        <v>1.017425516424083</v>
+        <v>1.055934208741715</v>
       </c>
       <c r="F3">
-        <v>1.023269549943103</v>
+        <v>1.06224995645096</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041332953532341</v>
+        <v>1.035299159911082</v>
       </c>
       <c r="J3">
-        <v>1.019585279801719</v>
+        <v>1.044214572351524</v>
       </c>
       <c r="K3">
-        <v>1.02599355278387</v>
+        <v>1.042002691772897</v>
       </c>
       <c r="L3">
-        <v>1.027840185673989</v>
+        <v>1.05848891787663</v>
       </c>
       <c r="M3">
-        <v>1.033613104202999</v>
+        <v>1.064788645097272</v>
       </c>
       <c r="N3">
-        <v>1.021033207847104</v>
+        <v>1.045697476817349</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003739000846921</v>
+        <v>1.040421283994389</v>
       </c>
       <c r="D4">
-        <v>1.018905143239516</v>
+        <v>1.040088234726084</v>
       </c>
       <c r="E4">
-        <v>1.021301048434236</v>
+        <v>1.056785592101297</v>
       </c>
       <c r="F4">
-        <v>1.027434078929899</v>
+        <v>1.063156627333494</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042559358482711</v>
+        <v>1.035495064384291</v>
       </c>
       <c r="J4">
-        <v>1.023047543785059</v>
+        <v>1.044931063502921</v>
       </c>
       <c r="K4">
-        <v>1.028780631042504</v>
+        <v>1.042561904472406</v>
       </c>
       <c r="L4">
-        <v>1.031149010276201</v>
+        <v>1.059218104185854</v>
       </c>
       <c r="M4">
-        <v>1.037212300767373</v>
+        <v>1.065573801465853</v>
       </c>
       <c r="N4">
-        <v>1.024500388642427</v>
+        <v>1.046414985468363</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005669208978237</v>
+        <v>1.040819689650912</v>
       </c>
       <c r="D5">
-        <v>1.020290061597172</v>
+        <v>1.040375104098515</v>
       </c>
       <c r="E5">
-        <v>1.022906992133017</v>
+        <v>1.057143458981009</v>
       </c>
       <c r="F5">
-        <v>1.029159018254355</v>
+        <v>1.063537688309091</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0430633109997</v>
+        <v>1.035576959784262</v>
       </c>
       <c r="J5">
-        <v>1.024477584746908</v>
+        <v>1.045231832662554</v>
       </c>
       <c r="K5">
-        <v>1.029930999040885</v>
+        <v>1.042796518236137</v>
       </c>
       <c r="L5">
-        <v>1.032518720492757</v>
+        <v>1.05952446861354</v>
       </c>
       <c r="M5">
-        <v>1.038701702835615</v>
+        <v>1.065903650687482</v>
       </c>
       <c r="N5">
-        <v>1.02593246042647</v>
+        <v>1.046716181754702</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005991419420865</v>
+        <v>1.040886563376092</v>
       </c>
       <c r="D6">
-        <v>1.02052127541637</v>
+        <v>1.040423251060234</v>
       </c>
       <c r="E6">
-        <v>1.023175305357116</v>
+        <v>1.057203543324069</v>
       </c>
       <c r="F6">
-        <v>1.029447168953221</v>
+        <v>1.063601664199922</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04314725929652</v>
+        <v>1.035590683284499</v>
       </c>
       <c r="J6">
-        <v>1.024716238269291</v>
+        <v>1.045282307251184</v>
       </c>
       <c r="K6">
-        <v>1.030122931278904</v>
+        <v>1.042835882923331</v>
       </c>
       <c r="L6">
-        <v>1.032747482775751</v>
+        <v>1.059575897786784</v>
       </c>
       <c r="M6">
-        <v>1.038950426029658</v>
+        <v>1.065959020435362</v>
       </c>
       <c r="N6">
-        <v>1.026171452864228</v>
+        <v>1.046766728023037</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003764919491204</v>
+        <v>1.04042660887793</v>
       </c>
       <c r="D7">
-        <v>1.018923737767542</v>
+        <v>1.040092069209353</v>
       </c>
       <c r="E7">
-        <v>1.021322597141985</v>
+        <v>1.056790374145539</v>
       </c>
       <c r="F7">
-        <v>1.027457227292976</v>
+        <v>1.063161719489306</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042566137354908</v>
+        <v>1.035496160491436</v>
       </c>
       <c r="J7">
-        <v>1.023066750482045</v>
+        <v>1.044935084132567</v>
       </c>
       <c r="K7">
-        <v>1.028796084687056</v>
+        <v>1.042565041271565</v>
       </c>
       <c r="L7">
-        <v>1.031167394712915</v>
+        <v>1.059222198566274</v>
       </c>
       <c r="M7">
-        <v>1.037232293716047</v>
+        <v>1.065578209827525</v>
       </c>
       <c r="N7">
-        <v>1.024519622615126</v>
+        <v>1.046419011807765</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9941735112745823</v>
+        <v>1.038501083076216</v>
       </c>
       <c r="D8">
-        <v>1.012046973062788</v>
+        <v>1.038704909793772</v>
       </c>
       <c r="E8">
-        <v>1.013377089492652</v>
+        <v>1.055062918753624</v>
       </c>
       <c r="F8">
-        <v>1.018916502431823</v>
+        <v>1.061321931163135</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040037074728774</v>
+        <v>1.035097138619814</v>
       </c>
       <c r="J8">
-        <v>1.01595208826783</v>
+        <v>1.043479969230495</v>
       </c>
       <c r="K8">
-        <v>1.023066196114299</v>
+        <v>1.04142889013212</v>
       </c>
       <c r="L8">
-        <v>1.024378857831687</v>
+        <v>1.057742208688343</v>
       </c>
       <c r="M8">
-        <v>1.029846192012454</v>
+        <v>1.063984515388571</v>
       </c>
       <c r="N8">
-        <v>1.017394856764503</v>
+        <v>1.044961830475627</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9760580380181179</v>
+        <v>1.035096320271666</v>
       </c>
       <c r="D9">
-        <v>0.9990886852743466</v>
+        <v>1.036249463670589</v>
       </c>
       <c r="E9">
-        <v>0.9985226054332823</v>
+        <v>1.052016837545385</v>
       </c>
       <c r="F9">
-        <v>1.002920927608256</v>
+        <v>1.058076298200799</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035166016952412</v>
+        <v>1.034379088348535</v>
       </c>
       <c r="J9">
-        <v>1.002485529989066</v>
+        <v>1.040901294588275</v>
       </c>
       <c r="K9">
-        <v>1.012196565248136</v>
+        <v>1.039411227880418</v>
       </c>
       <c r="L9">
-        <v>1.01163969789752</v>
+        <v>1.05512803658576</v>
       </c>
       <c r="M9">
-        <v>1.015966791897025</v>
+        <v>1.061168502978158</v>
       </c>
       <c r="N9">
-        <v>1.003909174428348</v>
+        <v>1.042379493819637</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9630112469455273</v>
+        <v>1.032818145647902</v>
       </c>
       <c r="D10">
-        <v>0.9897873434698582</v>
+        <v>1.034604790831329</v>
       </c>
       <c r="E10">
-        <v>0.9879438407773764</v>
+        <v>1.049984439933427</v>
       </c>
       <c r="F10">
-        <v>0.9915074724828187</v>
+        <v>1.055909747917551</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031599188612781</v>
+        <v>1.033890258793047</v>
       </c>
       <c r="J10">
-        <v>0.9927733623725713</v>
+        <v>1.039172064187656</v>
       </c>
       <c r="K10">
-        <v>1.004343471725887</v>
+        <v>1.038055381741222</v>
       </c>
       <c r="L10">
-        <v>1.002534239050761</v>
+        <v>1.053380806710396</v>
       </c>
       <c r="M10">
-        <v>1.006031773986818</v>
+        <v>1.059285687627619</v>
       </c>
       <c r="N10">
-        <v>0.9941832144198368</v>
+        <v>1.040647807713504</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9570913325437004</v>
+        <v>1.031829596112298</v>
       </c>
       <c r="D11">
-        <v>0.9855771043936848</v>
+        <v>1.033890744525504</v>
       </c>
       <c r="E11">
-        <v>0.9831762698470414</v>
+        <v>1.049103929633836</v>
       </c>
       <c r="F11">
-        <v>0.9863577524587247</v>
+        <v>1.054970874366213</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029968252359573</v>
+        <v>1.03367616582094</v>
       </c>
       <c r="J11">
-        <v>0.9883649081694277</v>
+        <v>1.038420818928281</v>
       </c>
       <c r="K11">
-        <v>1.000776239240594</v>
+        <v>1.037465685095137</v>
       </c>
       <c r="L11">
-        <v>0.9984225875195981</v>
+        <v>1.052623124967092</v>
       </c>
       <c r="M11">
-        <v>1.001541610402273</v>
+        <v>1.05846904567937</v>
       </c>
       <c r="N11">
-        <v>0.9897684997060675</v>
+        <v>1.039895495599692</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9548477440197666</v>
+        <v>1.031462083009944</v>
       </c>
       <c r="D12">
-        <v>0.9839832654307112</v>
+        <v>1.033625226707526</v>
       </c>
       <c r="E12">
-        <v>0.9813746929240877</v>
+        <v>1.048776793065041</v>
       </c>
       <c r="F12">
-        <v>0.9844107977542006</v>
+        <v>1.054622017150043</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02934840216454</v>
+        <v>1.033596275651423</v>
       </c>
       <c r="J12">
-        <v>0.986694062203525</v>
+        <v>1.038141394666784</v>
       </c>
       <c r="K12">
-        <v>0.9994238913237556</v>
+        <v>1.037246249238913</v>
       </c>
       <c r="L12">
-        <v>0.9968676404479516</v>
+        <v>1.052341515040413</v>
       </c>
       <c r="M12">
-        <v>0.9998428831678329</v>
+        <v>1.058165497016124</v>
       </c>
       <c r="N12">
-        <v>0.9880952809472447</v>
+        <v>1.039615674523694</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9553310933376525</v>
+        <v>1.031540930517691</v>
       </c>
       <c r="D13">
-        <v>0.9843265496020727</v>
+        <v>1.033682194349006</v>
       </c>
       <c r="E13">
-        <v>0.9817625716131873</v>
+        <v>1.048846968488815</v>
       </c>
       <c r="F13">
-        <v>0.9848300213048101</v>
+        <v>1.05469685363597</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029482016323863</v>
+        <v>1.033613428980619</v>
       </c>
       <c r="J13">
-        <v>0.9870540234383511</v>
+        <v>1.038201349338873</v>
       </c>
       <c r="K13">
-        <v>0.9997152504051932</v>
+        <v>1.037293336982623</v>
       </c>
       <c r="L13">
-        <v>0.9972024756982915</v>
+        <v>1.052401929243126</v>
       </c>
       <c r="M13">
-        <v>1.000208708814892</v>
+        <v>1.058230618894932</v>
       </c>
       <c r="N13">
-        <v>0.9884557533683124</v>
+        <v>1.039675714338293</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9569068132619791</v>
+        <v>1.031799223978752</v>
       </c>
       <c r="D14">
-        <v>0.9854459842935328</v>
+        <v>1.033868802668821</v>
       </c>
       <c r="E14">
-        <v>0.983027993267958</v>
+        <v>1.049076890001575</v>
       </c>
       <c r="F14">
-        <v>0.9861975308866262</v>
+        <v>1.054942040158225</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029917308527158</v>
+        <v>1.033669569562556</v>
       </c>
       <c r="J14">
-        <v>0.9882274936891771</v>
+        <v>1.038397729385188</v>
       </c>
       <c r="K14">
-        <v>1.000665025191214</v>
+        <v>1.037447554569808</v>
       </c>
       <c r="L14">
-        <v>0.9982946345801708</v>
+        <v>1.052599850564645</v>
       </c>
       <c r="M14">
-        <v>1.001401839280744</v>
+        <v>1.058443958598798</v>
       </c>
       <c r="N14">
-        <v>0.9896308900814936</v>
+        <v>1.0398723732668</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9578716176566623</v>
+        <v>1.031958324207516</v>
       </c>
       <c r="D15">
-        <v>0.9861316527161603</v>
+        <v>1.033983739739048</v>
       </c>
       <c r="E15">
-        <v>0.9838035109871287</v>
+        <v>1.04921854202183</v>
       </c>
       <c r="F15">
-        <v>0.9870354834995629</v>
+        <v>1.055093091875563</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030183610979715</v>
+        <v>1.033704111003706</v>
       </c>
       <c r="J15">
-        <v>0.9889459965449504</v>
+        <v>1.038518675296246</v>
       </c>
       <c r="K15">
-        <v>1.001246519998368</v>
+        <v>1.037542520464916</v>
       </c>
       <c r="L15">
-        <v>0.9989638052469062</v>
+        <v>1.05272177332416</v>
       </c>
       <c r="M15">
-        <v>1.002132790824112</v>
+        <v>1.058575376040209</v>
       </c>
       <c r="N15">
-        <v>0.9903504132937354</v>
+        <v>1.039993490934923</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9633981008573168</v>
+        <v>1.032883707769546</v>
       </c>
       <c r="D16">
-        <v>0.9900627062642489</v>
+        <v>1.034652139446088</v>
       </c>
       <c r="E16">
-        <v>0.9882560957719333</v>
+        <v>1.050042866165044</v>
       </c>
       <c r="F16">
-        <v>0.9918446267797393</v>
+        <v>1.055972041685223</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03170551952693</v>
+        <v>1.033904416148227</v>
       </c>
       <c r="J16">
-        <v>0.9930614249682392</v>
+        <v>1.039221869146566</v>
       </c>
       <c r="K16">
-        <v>1.004576516885826</v>
+        <v>1.038094462653437</v>
       </c>
       <c r="L16">
-        <v>1.002803365581833</v>
+        <v>1.053431067538384</v>
       </c>
       <c r="M16">
-        <v>1.00632559103947</v>
+        <v>1.059339856114093</v>
       </c>
       <c r="N16">
-        <v>0.9944716860974316</v>
+        <v>1.040697683401168</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9667896081922035</v>
+        <v>1.033463612222534</v>
       </c>
       <c r="D17">
-        <v>0.9924779606874714</v>
+        <v>1.035070898863482</v>
       </c>
       <c r="E17">
-        <v>0.9909973058810291</v>
+        <v>1.050559813617556</v>
       </c>
       <c r="F17">
-        <v>0.9948037382382668</v>
+        <v>1.05652318043243</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032636317322882</v>
+        <v>1.034029411248943</v>
       </c>
       <c r="J17">
-        <v>0.9955866749025998</v>
+        <v>1.039662296544363</v>
       </c>
       <c r="K17">
-        <v>1.006619176589628</v>
+        <v>1.038439980317246</v>
       </c>
       <c r="L17">
-        <v>1.005165047970058</v>
+        <v>1.053875685790295</v>
       </c>
       <c r="M17">
-        <v>1.008903494328751</v>
+        <v>1.059819023421496</v>
       </c>
       <c r="N17">
-        <v>0.9970005221763493</v>
+        <v>1.041138736256388</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.968742009792203</v>
+        <v>1.033801660099046</v>
       </c>
       <c r="D18">
-        <v>0.993869296896538</v>
+        <v>1.035314971923248</v>
       </c>
       <c r="E18">
-        <v>0.9925783674209185</v>
+        <v>1.050861295464468</v>
       </c>
       <c r="F18">
-        <v>0.9965099221689839</v>
+        <v>1.056844579070743</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033170970465069</v>
+        <v>1.034102084782343</v>
       </c>
       <c r="J18">
-        <v>0.9970402331068423</v>
+        <v>1.039918951811145</v>
       </c>
       <c r="K18">
-        <v>1.007794700087136</v>
+        <v>1.038641263772547</v>
       </c>
       <c r="L18">
-        <v>1.006526449537556</v>
+        <v>1.054134916400079</v>
       </c>
       <c r="M18">
-        <v>1.010389172074386</v>
+        <v>1.060098381753905</v>
       </c>
       <c r="N18">
-        <v>0.9984561445999671</v>
+        <v>1.041395756003088</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9694034642761957</v>
+        <v>1.033916891924886</v>
       </c>
       <c r="D19">
-        <v>0.9943408195881162</v>
+        <v>1.035398163769971</v>
       </c>
       <c r="E19">
-        <v>0.9931145165518199</v>
+        <v>1.050964085537917</v>
       </c>
       <c r="F19">
-        <v>0.9970884085971387</v>
+        <v>1.05695415579745</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03335190125819</v>
+        <v>1.034126824948174</v>
       </c>
       <c r="J19">
-        <v>0.9975326525963716</v>
+        <v>1.04000642434236</v>
       </c>
       <c r="K19">
-        <v>1.008192885884518</v>
+        <v>1.038709853770567</v>
       </c>
       <c r="L19">
-        <v>1.006987982383167</v>
+        <v>1.054223289221685</v>
       </c>
       <c r="M19">
-        <v>1.010892775456627</v>
+        <v>1.060193613529753</v>
       </c>
       <c r="N19">
-        <v>0.9989492633816528</v>
+        <v>1.041483352755331</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9664284282285028</v>
+        <v>1.03340141477184</v>
       </c>
       <c r="D20">
-        <v>0.9922206478981153</v>
+        <v>1.035025988825329</v>
       </c>
       <c r="E20">
-        <v>0.9907050630560873</v>
+        <v>1.050504354727291</v>
       </c>
       <c r="F20">
-        <v>0.9944883231756151</v>
+        <v>1.056464055877081</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032537313654899</v>
+        <v>1.034016024674816</v>
       </c>
       <c r="J20">
-        <v>0.9953177631525978</v>
+        <v>1.039615067575243</v>
       </c>
       <c r="K20">
-        <v>1.006401681155418</v>
+        <v>1.038402935553801</v>
       </c>
       <c r="L20">
-        <v>1.00491334578291</v>
+        <v>1.053827993635132</v>
       </c>
       <c r="M20">
-        <v>1.00862878611492</v>
+        <v>1.059767626982741</v>
       </c>
       <c r="N20">
-        <v>0.9967312285408176</v>
+        <v>1.041091440216714</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9564440711538398</v>
+        <v>1.03172317194428</v>
       </c>
       <c r="D21">
-        <v>0.9851171878911613</v>
+        <v>1.033813859193844</v>
       </c>
       <c r="E21">
-        <v>0.982656227938896</v>
+        <v>1.049009185983939</v>
       </c>
       <c r="F21">
-        <v>0.9857958006847826</v>
+        <v>1.054869842139342</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029789522796956</v>
+        <v>1.033653047693545</v>
       </c>
       <c r="J21">
-        <v>0.9878828813734306</v>
+        <v>1.038339910849541</v>
       </c>
       <c r="K21">
-        <v>1.000386114003473</v>
+        <v>1.037402152310929</v>
       </c>
       <c r="L21">
-        <v>0.9979738056883585</v>
+        <v>1.052541572489558</v>
       </c>
       <c r="M21">
-        <v>1.001051367140685</v>
+        <v>1.058381141256364</v>
       </c>
       <c r="N21">
-        <v>0.9892857883767312</v>
+        <v>1.0398144726222</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9499056529107478</v>
+        <v>1.030666128008996</v>
       </c>
       <c r="D22">
-        <v>0.9804760643612822</v>
+        <v>1.03305006931931</v>
       </c>
       <c r="E22">
-        <v>0.9774164993979154</v>
+        <v>1.048068672560431</v>
       </c>
       <c r="F22">
-        <v>0.9801313198340618</v>
+        <v>1.053866812195129</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027979970216452</v>
+        <v>1.033422708185264</v>
       </c>
       <c r="J22">
-        <v>0.9830136176721077</v>
+        <v>1.03753597725466</v>
       </c>
       <c r="K22">
-        <v>0.9964444763767917</v>
+        <v>1.03677062514024</v>
       </c>
       <c r="L22">
-        <v>0.9934490194659752</v>
+        <v>1.051731743936695</v>
       </c>
       <c r="M22">
-        <v>0.9961069289451273</v>
+        <v>1.057508176282171</v>
       </c>
       <c r="N22">
-        <v>0.9844096097624399</v>
+        <v>1.039009397349402</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.953398011365631</v>
+        <v>1.031226666752816</v>
       </c>
       <c r="D23">
-        <v>0.9829539230064286</v>
+        <v>1.033455129301862</v>
       </c>
       <c r="E23">
-        <v>0.9802121186919328</v>
+        <v>1.04856730018784</v>
       </c>
       <c r="F23">
-        <v>0.9831541263040662</v>
+        <v>1.054398604292714</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028947402935582</v>
+        <v>1.033545017261681</v>
       </c>
       <c r="J23">
-        <v>0.9856144137821991</v>
+        <v>1.037962367507262</v>
       </c>
       <c r="K23">
-        <v>0.9985499608697772</v>
+        <v>1.037105628761403</v>
       </c>
       <c r="L23">
-        <v>0.9958638694308949</v>
+        <v>1.052161146260599</v>
       </c>
       <c r="M23">
-        <v>0.998746112112879</v>
+        <v>1.057971069651602</v>
       </c>
       <c r="N23">
-        <v>0.9870140993013233</v>
+        <v>1.03943639312507</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.966591709361882</v>
+        <v>1.033429519742586</v>
       </c>
       <c r="D24">
-        <v>0.9923369701826624</v>
+        <v>1.035046282301792</v>
       </c>
       <c r="E24">
-        <v>0.9908371699470295</v>
+        <v>1.050529414351559</v>
       </c>
       <c r="F24">
-        <v>0.9946309066855703</v>
+        <v>1.056490771939228</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03258207461541</v>
+        <v>1.034022074214585</v>
       </c>
       <c r="J24">
-        <v>0.995439332468241</v>
+        <v>1.039636409050897</v>
       </c>
       <c r="K24">
-        <v>1.006500007026898</v>
+        <v>1.038419675264103</v>
       </c>
       <c r="L24">
-        <v>1.00502712883526</v>
+        <v>1.053849544000238</v>
       </c>
       <c r="M24">
-        <v>1.008752970271225</v>
+        <v>1.059790851228807</v>
       </c>
       <c r="N24">
-        <v>0.9968529704988331</v>
+        <v>1.041112811999713</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9808999089617949</v>
+        <v>1.035977969392573</v>
       </c>
       <c r="D25">
-        <v>1.002547670144855</v>
+        <v>1.036885595629224</v>
       </c>
       <c r="E25">
-        <v>1.002473800518544</v>
+        <v>1.052804597788682</v>
       </c>
       <c r="F25">
-        <v>1.007179193719507</v>
+        <v>1.058915841649086</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03647833799874</v>
+        <v>1.034566499824125</v>
       </c>
       <c r="J25">
-        <v>1.006087619549418</v>
+        <v>1.041569703308745</v>
       </c>
       <c r="K25">
-        <v>1.015106565136429</v>
+        <v>1.039934717098188</v>
       </c>
       <c r="L25">
-        <v>1.015033834918913</v>
+        <v>1.055804628198121</v>
       </c>
       <c r="M25">
-        <v>1.019667074922239</v>
+        <v>1.061897453548539</v>
       </c>
       <c r="N25">
-        <v>1.007516379369041</v>
+        <v>1.043048851757159</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_116/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_116/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038004593215928</v>
+        <v>0.9916269345004504</v>
       </c>
       <c r="D2">
-        <v>1.038347054360427</v>
+        <v>1.010222780366314</v>
       </c>
       <c r="E2">
-        <v>1.054618069731408</v>
+        <v>1.011277045779769</v>
       </c>
       <c r="F2">
-        <v>1.060848055378822</v>
+        <v>1.016657356182422</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034993404703347</v>
+        <v>1.039359202101357</v>
       </c>
       <c r="J2">
-        <v>1.043104385271074</v>
+        <v>1.014060999606306</v>
       </c>
       <c r="K2">
-        <v>1.04113534690304</v>
+        <v>1.021541509355761</v>
       </c>
       <c r="L2">
-        <v>1.057360784422995</v>
+        <v>1.022581477648525</v>
       </c>
       <c r="M2">
-        <v>1.063573719723618</v>
+        <v>1.027889404568942</v>
       </c>
       <c r="N2">
-        <v>1.044585713143904</v>
+        <v>1.015501082540169</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039472768506375</v>
+        <v>0.9990692082630283</v>
       </c>
       <c r="D3">
-        <v>1.039405059870291</v>
+        <v>1.015555917730479</v>
       </c>
       <c r="E3">
-        <v>1.055934208741715</v>
+        <v>1.017425516424083</v>
       </c>
       <c r="F3">
-        <v>1.06224995645096</v>
+        <v>1.023269549943103</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035299159911082</v>
+        <v>1.041332953532341</v>
       </c>
       <c r="J3">
-        <v>1.044214572351524</v>
+        <v>1.019585279801719</v>
       </c>
       <c r="K3">
-        <v>1.042002691772897</v>
+        <v>1.02599355278387</v>
       </c>
       <c r="L3">
-        <v>1.05848891787663</v>
+        <v>1.027840185673989</v>
       </c>
       <c r="M3">
-        <v>1.064788645097272</v>
+        <v>1.033613104202999</v>
       </c>
       <c r="N3">
-        <v>1.045697476817349</v>
+        <v>1.021033207847104</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040421283994389</v>
+        <v>1.003739000846921</v>
       </c>
       <c r="D4">
-        <v>1.040088234726084</v>
+        <v>1.018905143239516</v>
       </c>
       <c r="E4">
-        <v>1.056785592101297</v>
+        <v>1.021301048434237</v>
       </c>
       <c r="F4">
-        <v>1.063156627333494</v>
+        <v>1.0274340789299</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035495064384291</v>
+        <v>1.042559358482711</v>
       </c>
       <c r="J4">
-        <v>1.044931063502921</v>
+        <v>1.023047543785059</v>
       </c>
       <c r="K4">
-        <v>1.042561904472406</v>
+        <v>1.028780631042504</v>
       </c>
       <c r="L4">
-        <v>1.059218104185854</v>
+        <v>1.031149010276202</v>
       </c>
       <c r="M4">
-        <v>1.065573801465853</v>
+        <v>1.037212300767373</v>
       </c>
       <c r="N4">
-        <v>1.046414985468363</v>
+        <v>1.024500388642427</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040819689650912</v>
+        <v>1.005669208978238</v>
       </c>
       <c r="D5">
-        <v>1.040375104098515</v>
+        <v>1.020290061597172</v>
       </c>
       <c r="E5">
-        <v>1.057143458981009</v>
+        <v>1.022906992133018</v>
       </c>
       <c r="F5">
-        <v>1.063537688309091</v>
+        <v>1.029159018254356</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035576959784262</v>
+        <v>1.0430633109997</v>
       </c>
       <c r="J5">
-        <v>1.045231832662554</v>
+        <v>1.024477584746909</v>
       </c>
       <c r="K5">
-        <v>1.042796518236137</v>
+        <v>1.029930999040885</v>
       </c>
       <c r="L5">
-        <v>1.05952446861354</v>
+        <v>1.032518720492757</v>
       </c>
       <c r="M5">
-        <v>1.065903650687482</v>
+        <v>1.038701702835616</v>
       </c>
       <c r="N5">
-        <v>1.046716181754702</v>
+        <v>1.02593246042647</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040886563376092</v>
+        <v>1.005991419420865</v>
       </c>
       <c r="D6">
-        <v>1.040423251060234</v>
+        <v>1.02052127541637</v>
       </c>
       <c r="E6">
-        <v>1.057203543324069</v>
+        <v>1.023175305357115</v>
       </c>
       <c r="F6">
-        <v>1.063601664199922</v>
+        <v>1.029447168953221</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035590683284499</v>
+        <v>1.04314725929652</v>
       </c>
       <c r="J6">
-        <v>1.045282307251184</v>
+        <v>1.024716238269291</v>
       </c>
       <c r="K6">
-        <v>1.042835882923331</v>
+        <v>1.030122931278904</v>
       </c>
       <c r="L6">
-        <v>1.059575897786784</v>
+        <v>1.032747482775751</v>
       </c>
       <c r="M6">
-        <v>1.065959020435362</v>
+        <v>1.038950426029658</v>
       </c>
       <c r="N6">
-        <v>1.046766728023037</v>
+        <v>1.026171452864229</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04042660887793</v>
+        <v>1.003764919491204</v>
       </c>
       <c r="D7">
-        <v>1.040092069209353</v>
+        <v>1.018923737767542</v>
       </c>
       <c r="E7">
-        <v>1.056790374145539</v>
+        <v>1.021322597141985</v>
       </c>
       <c r="F7">
-        <v>1.063161719489306</v>
+        <v>1.027457227292976</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035496160491436</v>
+        <v>1.042566137354908</v>
       </c>
       <c r="J7">
-        <v>1.044935084132567</v>
+        <v>1.023066750482045</v>
       </c>
       <c r="K7">
-        <v>1.042565041271565</v>
+        <v>1.028796084687056</v>
       </c>
       <c r="L7">
-        <v>1.059222198566274</v>
+        <v>1.031167394712915</v>
       </c>
       <c r="M7">
-        <v>1.065578209827525</v>
+        <v>1.037232293716047</v>
       </c>
       <c r="N7">
-        <v>1.046419011807765</v>
+        <v>1.024519622615126</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038501083076216</v>
+        <v>0.9941735112745824</v>
       </c>
       <c r="D8">
-        <v>1.038704909793772</v>
+        <v>1.012046973062788</v>
       </c>
       <c r="E8">
-        <v>1.055062918753624</v>
+        <v>1.013377089492653</v>
       </c>
       <c r="F8">
-        <v>1.061321931163135</v>
+        <v>1.018916502431824</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035097138619814</v>
+        <v>1.040037074728774</v>
       </c>
       <c r="J8">
-        <v>1.043479969230495</v>
+        <v>1.01595208826783</v>
       </c>
       <c r="K8">
-        <v>1.04142889013212</v>
+        <v>1.023066196114299</v>
       </c>
       <c r="L8">
-        <v>1.057742208688343</v>
+        <v>1.024378857831688</v>
       </c>
       <c r="M8">
-        <v>1.063984515388571</v>
+        <v>1.029846192012454</v>
       </c>
       <c r="N8">
-        <v>1.044961830475627</v>
+        <v>1.017394856764503</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035096320271666</v>
+        <v>0.9760580380181161</v>
       </c>
       <c r="D9">
-        <v>1.036249463670589</v>
+        <v>0.9990886852743455</v>
       </c>
       <c r="E9">
-        <v>1.052016837545385</v>
+        <v>0.9985226054332822</v>
       </c>
       <c r="F9">
-        <v>1.058076298200799</v>
+        <v>1.002920927608256</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034379088348535</v>
+        <v>1.035166016952412</v>
       </c>
       <c r="J9">
-        <v>1.040901294588275</v>
+        <v>1.002485529989064</v>
       </c>
       <c r="K9">
-        <v>1.039411227880418</v>
+        <v>1.012196565248134</v>
       </c>
       <c r="L9">
-        <v>1.05512803658576</v>
+        <v>1.011639697897519</v>
       </c>
       <c r="M9">
-        <v>1.061168502978158</v>
+        <v>1.015966791897024</v>
       </c>
       <c r="N9">
-        <v>1.042379493819637</v>
+        <v>1.003909174428347</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032818145647902</v>
+        <v>0.9630112469455273</v>
       </c>
       <c r="D10">
-        <v>1.034604790831329</v>
+        <v>0.9897873434698584</v>
       </c>
       <c r="E10">
-        <v>1.049984439933427</v>
+        <v>0.9879438407773766</v>
       </c>
       <c r="F10">
-        <v>1.055909747917551</v>
+        <v>0.9915074724828189</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033890258793047</v>
+        <v>1.031599188612781</v>
       </c>
       <c r="J10">
-        <v>1.039172064187656</v>
+        <v>0.9927733623725714</v>
       </c>
       <c r="K10">
-        <v>1.038055381741222</v>
+        <v>1.004343471725887</v>
       </c>
       <c r="L10">
-        <v>1.053380806710396</v>
+        <v>1.002534239050761</v>
       </c>
       <c r="M10">
-        <v>1.059285687627619</v>
+        <v>1.006031773986818</v>
       </c>
       <c r="N10">
-        <v>1.040647807713504</v>
+        <v>0.9941832144198369</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031829596112298</v>
+        <v>0.9570913325437018</v>
       </c>
       <c r="D11">
-        <v>1.033890744525504</v>
+        <v>0.9855771043936858</v>
       </c>
       <c r="E11">
-        <v>1.049103929633836</v>
+        <v>0.983176269847042</v>
       </c>
       <c r="F11">
-        <v>1.054970874366213</v>
+        <v>0.9863577524587255</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03367616582094</v>
+        <v>1.029968252359574</v>
       </c>
       <c r="J11">
-        <v>1.038420818928281</v>
+        <v>0.9883649081694288</v>
       </c>
       <c r="K11">
-        <v>1.037465685095137</v>
+        <v>1.000776239240595</v>
       </c>
       <c r="L11">
-        <v>1.052623124967092</v>
+        <v>0.9984225875195988</v>
       </c>
       <c r="M11">
-        <v>1.05846904567937</v>
+        <v>1.001541610402274</v>
       </c>
       <c r="N11">
-        <v>1.039895495599692</v>
+        <v>0.9897684997060689</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031462083009944</v>
+        <v>0.9548477440197661</v>
       </c>
       <c r="D12">
-        <v>1.033625226707526</v>
+        <v>0.9839832654307108</v>
       </c>
       <c r="E12">
-        <v>1.048776793065041</v>
+        <v>0.9813746929240879</v>
       </c>
       <c r="F12">
-        <v>1.054622017150043</v>
+        <v>0.9844107977542004</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033596275651423</v>
+        <v>1.02934840216454</v>
       </c>
       <c r="J12">
-        <v>1.038141394666784</v>
+        <v>0.9866940622035244</v>
       </c>
       <c r="K12">
-        <v>1.037246249238913</v>
+        <v>0.9994238913237551</v>
       </c>
       <c r="L12">
-        <v>1.052341515040413</v>
+        <v>0.9968676404479515</v>
       </c>
       <c r="M12">
-        <v>1.058165497016124</v>
+        <v>0.9998428831678327</v>
       </c>
       <c r="N12">
-        <v>1.039615674523694</v>
+        <v>0.9880952809472442</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031540930517691</v>
+        <v>0.9553310933376518</v>
       </c>
       <c r="D13">
-        <v>1.033682194349006</v>
+        <v>0.984326549602072</v>
       </c>
       <c r="E13">
-        <v>1.048846968488815</v>
+        <v>0.9817625716131865</v>
       </c>
       <c r="F13">
-        <v>1.05469685363597</v>
+        <v>0.9848300213048091</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033613428980619</v>
+        <v>1.029482016323862</v>
       </c>
       <c r="J13">
-        <v>1.038201349338873</v>
+        <v>0.9870540234383502</v>
       </c>
       <c r="K13">
-        <v>1.037293336982623</v>
+        <v>0.9997152504051924</v>
       </c>
       <c r="L13">
-        <v>1.052401929243126</v>
+        <v>0.9972024756982908</v>
       </c>
       <c r="M13">
-        <v>1.058230618894932</v>
+        <v>1.000208708814891</v>
       </c>
       <c r="N13">
-        <v>1.039675714338293</v>
+        <v>0.9884557533683118</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031799223978752</v>
+        <v>0.9569068132619795</v>
       </c>
       <c r="D14">
-        <v>1.033868802668821</v>
+        <v>0.9854459842935329</v>
       </c>
       <c r="E14">
-        <v>1.049076890001575</v>
+        <v>0.9830279932679576</v>
       </c>
       <c r="F14">
-        <v>1.054942040158225</v>
+        <v>0.986197530886626</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033669569562556</v>
+        <v>1.029917308527158</v>
       </c>
       <c r="J14">
-        <v>1.038397729385188</v>
+        <v>0.9882274936891773</v>
       </c>
       <c r="K14">
-        <v>1.037447554569808</v>
+        <v>1.000665025191214</v>
       </c>
       <c r="L14">
-        <v>1.052599850564645</v>
+        <v>0.9982946345801704</v>
       </c>
       <c r="M14">
-        <v>1.058443958598798</v>
+        <v>1.001401839280744</v>
       </c>
       <c r="N14">
-        <v>1.0398723732668</v>
+        <v>0.989630890081494</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031958324207516</v>
+        <v>0.9578716176566631</v>
       </c>
       <c r="D15">
-        <v>1.033983739739048</v>
+        <v>0.9861316527161611</v>
       </c>
       <c r="E15">
-        <v>1.04921854202183</v>
+        <v>0.9838035109871295</v>
       </c>
       <c r="F15">
-        <v>1.055093091875563</v>
+        <v>0.9870354834995638</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033704111003706</v>
+        <v>1.030183610979715</v>
       </c>
       <c r="J15">
-        <v>1.038518675296246</v>
+        <v>0.9889459965449512</v>
       </c>
       <c r="K15">
-        <v>1.037542520464916</v>
+        <v>1.001246519998369</v>
       </c>
       <c r="L15">
-        <v>1.05272177332416</v>
+        <v>0.9989638052469071</v>
       </c>
       <c r="M15">
-        <v>1.058575376040209</v>
+        <v>1.002132790824113</v>
       </c>
       <c r="N15">
-        <v>1.039993490934923</v>
+        <v>0.9903504132937362</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032883707769546</v>
+        <v>0.9633981008573161</v>
       </c>
       <c r="D16">
-        <v>1.034652139446088</v>
+        <v>0.9900627062642486</v>
       </c>
       <c r="E16">
-        <v>1.050042866165044</v>
+        <v>0.9882560957719336</v>
       </c>
       <c r="F16">
-        <v>1.055972041685223</v>
+        <v>0.9918446267797393</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033904416148227</v>
+        <v>1.03170551952693</v>
       </c>
       <c r="J16">
-        <v>1.039221869146566</v>
+        <v>0.9930614249682387</v>
       </c>
       <c r="K16">
-        <v>1.038094462653437</v>
+        <v>1.004576516885826</v>
       </c>
       <c r="L16">
-        <v>1.053431067538384</v>
+        <v>1.002803365581833</v>
       </c>
       <c r="M16">
-        <v>1.059339856114093</v>
+        <v>1.00632559103947</v>
       </c>
       <c r="N16">
-        <v>1.040697683401168</v>
+        <v>0.994471686097431</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033463612222534</v>
+        <v>0.9667896081922021</v>
       </c>
       <c r="D17">
-        <v>1.035070898863482</v>
+        <v>0.9924779606874705</v>
       </c>
       <c r="E17">
-        <v>1.050559813617556</v>
+        <v>0.9909973058810287</v>
       </c>
       <c r="F17">
-        <v>1.05652318043243</v>
+        <v>0.9948037382382663</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034029411248943</v>
+        <v>1.032636317322881</v>
       </c>
       <c r="J17">
-        <v>1.039662296544363</v>
+        <v>0.9955866749025986</v>
       </c>
       <c r="K17">
-        <v>1.038439980317246</v>
+        <v>1.006619176589627</v>
       </c>
       <c r="L17">
-        <v>1.053875685790295</v>
+        <v>1.005165047970057</v>
       </c>
       <c r="M17">
-        <v>1.059819023421496</v>
+        <v>1.00890349432875</v>
       </c>
       <c r="N17">
-        <v>1.041138736256388</v>
+        <v>0.997000522176348</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033801660099046</v>
+        <v>0.9687420097922025</v>
       </c>
       <c r="D18">
-        <v>1.035314971923248</v>
+        <v>0.9938692968965374</v>
       </c>
       <c r="E18">
-        <v>1.050861295464468</v>
+        <v>0.9925783674209188</v>
       </c>
       <c r="F18">
-        <v>1.056844579070743</v>
+        <v>0.9965099221689842</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034102084782343</v>
+        <v>1.033170970465069</v>
       </c>
       <c r="J18">
-        <v>1.039918951811145</v>
+        <v>0.9970402331068418</v>
       </c>
       <c r="K18">
-        <v>1.038641263772547</v>
+        <v>1.007794700087135</v>
       </c>
       <c r="L18">
-        <v>1.054134916400079</v>
+        <v>1.006526449537556</v>
       </c>
       <c r="M18">
-        <v>1.060098381753905</v>
+        <v>1.010389172074386</v>
       </c>
       <c r="N18">
-        <v>1.041395756003088</v>
+        <v>0.9984561445999667</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033916891924886</v>
+        <v>0.9694034642761955</v>
       </c>
       <c r="D19">
-        <v>1.035398163769971</v>
+        <v>0.994340819588116</v>
       </c>
       <c r="E19">
-        <v>1.050964085537917</v>
+        <v>0.9931145165518209</v>
       </c>
       <c r="F19">
-        <v>1.05695415579745</v>
+        <v>0.9970884085971394</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034126824948174</v>
+        <v>1.03335190125819</v>
       </c>
       <c r="J19">
-        <v>1.04000642434236</v>
+        <v>0.9975326525963716</v>
       </c>
       <c r="K19">
-        <v>1.038709853770567</v>
+        <v>1.008192885884518</v>
       </c>
       <c r="L19">
-        <v>1.054223289221685</v>
+        <v>1.006987982383168</v>
       </c>
       <c r="M19">
-        <v>1.060193613529753</v>
+        <v>1.010892775456628</v>
       </c>
       <c r="N19">
-        <v>1.041483352755331</v>
+        <v>0.9989492633816529</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03340141477184</v>
+        <v>0.9664284282285038</v>
       </c>
       <c r="D20">
-        <v>1.035025988825329</v>
+        <v>0.9922206478981163</v>
       </c>
       <c r="E20">
-        <v>1.050504354727291</v>
+        <v>0.9907050630560881</v>
       </c>
       <c r="F20">
-        <v>1.056464055877081</v>
+        <v>0.9944883231756159</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034016024674816</v>
+        <v>1.0325373136549</v>
       </c>
       <c r="J20">
-        <v>1.039615067575243</v>
+        <v>0.9953177631525989</v>
       </c>
       <c r="K20">
-        <v>1.038402935553801</v>
+        <v>1.00640168115542</v>
       </c>
       <c r="L20">
-        <v>1.053827993635132</v>
+        <v>1.00491334578291</v>
       </c>
       <c r="M20">
-        <v>1.059767626982741</v>
+        <v>1.008628786114921</v>
       </c>
       <c r="N20">
-        <v>1.041091440216714</v>
+        <v>0.9967312285408185</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03172317194428</v>
+        <v>0.9564440711538407</v>
       </c>
       <c r="D21">
-        <v>1.033813859193844</v>
+        <v>0.985117187891162</v>
       </c>
       <c r="E21">
-        <v>1.049009185983939</v>
+        <v>0.9826562279388964</v>
       </c>
       <c r="F21">
-        <v>1.054869842139342</v>
+        <v>0.9857958006847833</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033653047693545</v>
+        <v>1.029789522796957</v>
       </c>
       <c r="J21">
-        <v>1.038339910849541</v>
+        <v>0.9878828813734316</v>
       </c>
       <c r="K21">
-        <v>1.037402152310929</v>
+        <v>1.000386114003473</v>
       </c>
       <c r="L21">
-        <v>1.052541572489558</v>
+        <v>0.9979738056883593</v>
       </c>
       <c r="M21">
-        <v>1.058381141256364</v>
+        <v>1.001051367140686</v>
       </c>
       <c r="N21">
-        <v>1.0398144726222</v>
+        <v>0.9892857883767321</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030666128008996</v>
+        <v>0.9499056529107468</v>
       </c>
       <c r="D22">
-        <v>1.03305006931931</v>
+        <v>0.980476064361281</v>
       </c>
       <c r="E22">
-        <v>1.048068672560431</v>
+        <v>0.9774164993979152</v>
       </c>
       <c r="F22">
-        <v>1.053866812195129</v>
+        <v>0.9801313198340613</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033422708185264</v>
+        <v>1.027979970216452</v>
       </c>
       <c r="J22">
-        <v>1.03753597725466</v>
+        <v>0.9830136176721066</v>
       </c>
       <c r="K22">
-        <v>1.03677062514024</v>
+        <v>0.9964444763767905</v>
       </c>
       <c r="L22">
-        <v>1.051731743936695</v>
+        <v>0.9934490194659751</v>
       </c>
       <c r="M22">
-        <v>1.057508176282171</v>
+        <v>0.9961069289451271</v>
       </c>
       <c r="N22">
-        <v>1.039009397349402</v>
+        <v>0.9844096097624389</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031226666752816</v>
+        <v>0.9533980113656315</v>
       </c>
       <c r="D23">
-        <v>1.033455129301862</v>
+        <v>0.9829539230064294</v>
       </c>
       <c r="E23">
-        <v>1.04856730018784</v>
+        <v>0.980212118691934</v>
       </c>
       <c r="F23">
-        <v>1.054398604292714</v>
+        <v>0.9831541263040671</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033545017261681</v>
+        <v>1.028947402935582</v>
       </c>
       <c r="J23">
-        <v>1.037962367507262</v>
+        <v>0.9856144137821998</v>
       </c>
       <c r="K23">
-        <v>1.037105628761403</v>
+        <v>0.9985499608697778</v>
       </c>
       <c r="L23">
-        <v>1.052161146260599</v>
+        <v>0.995863869430896</v>
       </c>
       <c r="M23">
-        <v>1.057971069651602</v>
+        <v>0.9987461121128799</v>
       </c>
       <c r="N23">
-        <v>1.03943639312507</v>
+        <v>0.9870140993013237</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033429519742586</v>
+        <v>0.9665917093618811</v>
       </c>
       <c r="D24">
-        <v>1.035046282301792</v>
+        <v>0.9923369701826614</v>
       </c>
       <c r="E24">
-        <v>1.050529414351559</v>
+        <v>0.9908371699470295</v>
       </c>
       <c r="F24">
-        <v>1.056490771939228</v>
+        <v>0.9946309066855703</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034022074214585</v>
+        <v>1.03258207461541</v>
       </c>
       <c r="J24">
-        <v>1.039636409050897</v>
+        <v>0.9954393324682401</v>
       </c>
       <c r="K24">
-        <v>1.038419675264103</v>
+        <v>1.006500007026898</v>
       </c>
       <c r="L24">
-        <v>1.053849544000238</v>
+        <v>1.00502712883526</v>
       </c>
       <c r="M24">
-        <v>1.059790851228807</v>
+        <v>1.008752970271225</v>
       </c>
       <c r="N24">
-        <v>1.041112811999713</v>
+        <v>0.9968529704988324</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035977969392573</v>
+        <v>0.9808999089617938</v>
       </c>
       <c r="D25">
-        <v>1.036885595629224</v>
+        <v>1.002547670144854</v>
       </c>
       <c r="E25">
-        <v>1.052804597788682</v>
+        <v>1.002473800518543</v>
       </c>
       <c r="F25">
-        <v>1.058915841649086</v>
+        <v>1.007179193719506</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034566499824125</v>
+        <v>1.036478337998739</v>
       </c>
       <c r="J25">
-        <v>1.041569703308745</v>
+        <v>1.006087619549416</v>
       </c>
       <c r="K25">
-        <v>1.039934717098188</v>
+        <v>1.015106565136428</v>
       </c>
       <c r="L25">
-        <v>1.055804628198121</v>
+        <v>1.015033834918913</v>
       </c>
       <c r="M25">
-        <v>1.061897453548539</v>
+        <v>1.019667074922238</v>
       </c>
       <c r="N25">
-        <v>1.043048851757159</v>
+        <v>1.00751637936904</v>
       </c>
     </row>
   </sheetData>
